--- a/storage/templates/import/bulk-data/plantilla-estudiante.xlsx
+++ b/storage/templates/import/bulk-data/plantilla-estudiante.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Projects\PyEduVirtual\PyEducaVirtualBackend\storage\templates\import\bulk-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D2B922-C294-4302-9582-1EBAAFF40380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2817F966-8F71-4FBB-9830-507494A95D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,64 +25,692 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>anio</t>
-  </si>
-  <si>
-    <t>codMod</t>
-  </si>
-  <si>
-    <t>cPersDocumento</t>
-  </si>
-  <si>
-    <t>cPersPaterno</t>
-  </si>
-  <si>
-    <t>cPersMaterno</t>
-  </si>
-  <si>
-    <t>cPersNombre</t>
-  </si>
-  <si>
-    <t>cPersSexo</t>
-  </si>
-  <si>
-    <t>cEstCorreoInstitucional</t>
-  </si>
-  <si>
-    <t>cEstCorreo</t>
-  </si>
-  <si>
-    <t>cEstUbigeo</t>
-  </si>
-  <si>
-    <t>cEstUbigeoNacimiento</t>
-  </si>
-  <si>
-    <t>cEstDireccion</t>
-  </si>
-  <si>
-    <t>cEstTelefono</t>
-  </si>
-  <si>
-    <t>cEstNombrePadre</t>
-  </si>
-  <si>
-    <t>cEstNombreMadre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="219">
+  <si>
+    <t>Apellido paterno</t>
+  </si>
+  <si>
+    <t>Apellido materno</t>
+  </si>
+  <si>
+    <t>Nombres</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Grado</t>
+  </si>
+  <si>
+    <t>Seccion</t>
+  </si>
+  <si>
+    <t>Tipo  de documento</t>
+  </si>
+  <si>
+    <t>Numero de documento</t>
+  </si>
+  <si>
+    <t>Codigo de estudiante</t>
+  </si>
+  <si>
+    <t>Fecha de nacimiento</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGUNDO                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUARTO                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÚNICA                         </t>
+  </si>
+  <si>
+    <t>62871734</t>
+  </si>
+  <si>
+    <t>63084591</t>
+  </si>
+  <si>
+    <t>63171685</t>
+  </si>
+  <si>
+    <t>62871649</t>
+  </si>
+  <si>
+    <t>62871551</t>
+  </si>
+  <si>
+    <t>63012187</t>
+  </si>
+  <si>
+    <t>63207421</t>
+  </si>
+  <si>
+    <t>63171815</t>
+  </si>
+  <si>
+    <t>63012274</t>
+  </si>
+  <si>
+    <t>63388733</t>
+  </si>
+  <si>
+    <t>63012086</t>
+  </si>
+  <si>
+    <t>63171614</t>
+  </si>
+  <si>
+    <t>62886439</t>
+  </si>
+  <si>
+    <t>63171604</t>
+  </si>
+  <si>
+    <t>63012045</t>
+  </si>
+  <si>
+    <t>62932601</t>
+  </si>
+  <si>
+    <t>62871848</t>
+  </si>
+  <si>
+    <t>63171696</t>
+  </si>
+  <si>
+    <t>61925935</t>
+  </si>
+  <si>
+    <t>61796534</t>
+  </si>
+  <si>
+    <t>62571144</t>
+  </si>
+  <si>
+    <t>73918593</t>
+  </si>
+  <si>
+    <t>73908944</t>
+  </si>
+  <si>
+    <t>61607722</t>
+  </si>
+  <si>
+    <t>62570951</t>
+  </si>
+  <si>
+    <t>61892960</t>
+  </si>
+  <si>
+    <t>61926001</t>
+  </si>
+  <si>
+    <t>62571019</t>
+  </si>
+  <si>
+    <t>61607730</t>
+  </si>
+  <si>
+    <t>62347675</t>
+  </si>
+  <si>
+    <t>61926107</t>
+  </si>
+  <si>
+    <t>61870077</t>
+  </si>
+  <si>
+    <t>62570954</t>
+  </si>
+  <si>
+    <t>61706953</t>
+  </si>
+  <si>
+    <t>61796129</t>
+  </si>
+  <si>
+    <t>00000062871734</t>
+  </si>
+  <si>
+    <t>00000063084591</t>
+  </si>
+  <si>
+    <t>00000063171685</t>
+  </si>
+  <si>
+    <t>00000062871649</t>
+  </si>
+  <si>
+    <t>00000062871551</t>
+  </si>
+  <si>
+    <t>13112582200018</t>
+  </si>
+  <si>
+    <t>00000063207421</t>
+  </si>
+  <si>
+    <t>00000063171815</t>
+  </si>
+  <si>
+    <t>00000063012274</t>
+  </si>
+  <si>
+    <t>00000063388733</t>
+  </si>
+  <si>
+    <t>00000063012086</t>
+  </si>
+  <si>
+    <t>00000063171614</t>
+  </si>
+  <si>
+    <t>00000062886439</t>
+  </si>
+  <si>
+    <t>00000063171604</t>
+  </si>
+  <si>
+    <t>00000063012045</t>
+  </si>
+  <si>
+    <t>00000062932601</t>
+  </si>
+  <si>
+    <t>00000062871848</t>
+  </si>
+  <si>
+    <t>00000063171696</t>
+  </si>
+  <si>
+    <t>00000061925935</t>
+  </si>
+  <si>
+    <t>00000061796534</t>
+  </si>
+  <si>
+    <t>12002770900010</t>
+  </si>
+  <si>
+    <t>00000073918593</t>
+  </si>
+  <si>
+    <t>13022638100078</t>
+  </si>
+  <si>
+    <t>00000061607722</t>
+  </si>
+  <si>
+    <t>12177730400010</t>
+  </si>
+  <si>
+    <t>00000061892960</t>
+  </si>
+  <si>
+    <t>00000061926001</t>
+  </si>
+  <si>
+    <t>12134252600030</t>
+  </si>
+  <si>
+    <t>00000061607730</t>
+  </si>
+  <si>
+    <t>13022638100118</t>
+  </si>
+  <si>
+    <t>00000061926107</t>
+  </si>
+  <si>
+    <t>00000062570954</t>
+  </si>
+  <si>
+    <t>00000061706953</t>
+  </si>
+  <si>
+    <t>00000061796129</t>
+  </si>
+  <si>
+    <t>ASCONA</t>
+  </si>
+  <si>
+    <t>CACERES</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>ESPINOZA</t>
+  </si>
+  <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>INADO</t>
+  </si>
+  <si>
+    <t>LOZADA</t>
+  </si>
+  <si>
+    <t>NINAMANGO</t>
+  </si>
+  <si>
+    <t>PEÑALOZA</t>
+  </si>
+  <si>
+    <t>PORTOCARRERO</t>
+  </si>
+  <si>
+    <t>PUERTA</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>VELASQUE</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>VILLANUEVA</t>
+  </si>
+  <si>
+    <t>YUCRA</t>
+  </si>
+  <si>
+    <t>ZEBALLOS</t>
+  </si>
+  <si>
+    <t>ABARCA</t>
+  </si>
+  <si>
+    <t>ALARCON</t>
+  </si>
+  <si>
+    <t>BOJORGES</t>
+  </si>
+  <si>
+    <t>CARRANZA</t>
+  </si>
+  <si>
+    <t>CHAPOÑAN</t>
+  </si>
+  <si>
+    <t>CHIRINOS</t>
+  </si>
+  <si>
+    <t>CORZO</t>
+  </si>
+  <si>
+    <t>FERNANDEZ</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>INFANTAS</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>LAZO</t>
+  </si>
+  <si>
+    <t>MEZA</t>
+  </si>
+  <si>
+    <t>OLIVARES</t>
+  </si>
+  <si>
+    <t>PINTO</t>
+  </si>
+  <si>
+    <t>UGARTE</t>
+  </si>
+  <si>
+    <t>VELASQUEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MOSQUEIRA</t>
+  </si>
+  <si>
+    <t>VALVERDE</t>
+  </si>
+  <si>
+    <t>PERAZA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>NIETO</t>
+  </si>
+  <si>
+    <t>OLAYA</t>
+  </si>
+  <si>
+    <t>FUENTES</t>
+  </si>
+  <si>
+    <t>LOAYZA</t>
+  </si>
+  <si>
+    <t>PAREDES</t>
+  </si>
+  <si>
+    <t>CERPA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>BAQUEDANO</t>
+  </si>
+  <si>
+    <t>PEREDA</t>
+  </si>
+  <si>
+    <t>ANGULO</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>HUAMAN</t>
+  </si>
+  <si>
+    <t>ARROSPIDE</t>
+  </si>
+  <si>
+    <t>CHINO</t>
+  </si>
+  <si>
+    <t>ORTIGAS</t>
+  </si>
+  <si>
+    <t>CUENCA</t>
+  </si>
+  <si>
+    <t>MINAYA</t>
+  </si>
+  <si>
+    <t>ECHANDIA</t>
+  </si>
+  <si>
+    <t>LAY</t>
+  </si>
+  <si>
+    <t>NAJAR</t>
+  </si>
+  <si>
+    <t>ADRIAZOLA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>MURAKAMI</t>
+  </si>
+  <si>
+    <t>VILCA</t>
+  </si>
+  <si>
+    <t>CARPIO</t>
+  </si>
+  <si>
+    <t>FABIO KALEB</t>
+  </si>
+  <si>
+    <t>ALEJANDRO FABIAN</t>
+  </si>
+  <si>
+    <t>GIANMARK DAYRO</t>
+  </si>
+  <si>
+    <t>JULIO EDUARDO</t>
+  </si>
+  <si>
+    <t>GUILLERMO NIKOLAE</t>
+  </si>
+  <si>
+    <t>VALENTINO SEBASTIAN</t>
+  </si>
+  <si>
+    <t>LEANDRO GABRIEL</t>
+  </si>
+  <si>
+    <t>CAMILA LUANA</t>
+  </si>
+  <si>
+    <t>ANGELA VALENTINA</t>
+  </si>
+  <si>
+    <t>PAULO SALVADOR</t>
+  </si>
+  <si>
+    <t>GABRIEL ALONSO</t>
+  </si>
+  <si>
+    <t>ANDRE SEBASTIAN</t>
+  </si>
+  <si>
+    <t>RAFAELLA VALENTINA</t>
+  </si>
+  <si>
+    <t>JEREMI LEANDRO</t>
+  </si>
+  <si>
+    <t>THEO MAHER</t>
+  </si>
+  <si>
+    <t>ISABELLA VICTORIA</t>
+  </si>
+  <si>
+    <t>YAHIMI KALENA ZOE</t>
+  </si>
+  <si>
+    <t>RAFAELA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>AMARO DAEL</t>
+  </si>
+  <si>
+    <t>CAMILA SAMIKAY</t>
+  </si>
+  <si>
+    <t>NICOLAS FERNANDO</t>
+  </si>
+  <si>
+    <t>KELAIA ANN</t>
+  </si>
+  <si>
+    <t>FRANCO JOHAO</t>
+  </si>
+  <si>
+    <t>MARIANA ESTEFANIA</t>
+  </si>
+  <si>
+    <t>GABRIELA KATE</t>
+  </si>
+  <si>
+    <t>VITTORIA ANDREA</t>
+  </si>
+  <si>
+    <t>LUCIA JESUS</t>
+  </si>
+  <si>
+    <t>MARIA FATIMA DANELLA</t>
+  </si>
+  <si>
+    <t>THIAGO ALEJANDRO</t>
+  </si>
+  <si>
+    <t>HARUKI DERECK</t>
+  </si>
+  <si>
+    <t>JOEMI KAELA</t>
+  </si>
+  <si>
+    <t>MARIA GRAZIA</t>
+  </si>
+  <si>
+    <t>BRITZA NATHANIEL</t>
+  </si>
+  <si>
+    <t>VIGGO TIZIANO</t>
+  </si>
+  <si>
+    <t>SEBASTIAN MATHIAS</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>24/06/2011</t>
+  </si>
+  <si>
+    <t>31/12/2011</t>
+  </si>
+  <si>
+    <t>11/03/2012</t>
+  </si>
+  <si>
+    <t>09/05/2011</t>
+  </si>
+  <si>
+    <t>10/05/2011</t>
+  </si>
+  <si>
+    <t>18/11/2011</t>
+  </si>
+  <si>
+    <t>30/03/2012</t>
+  </si>
+  <si>
+    <t>20/03/2012</t>
+  </si>
+  <si>
+    <t>05/01/2012</t>
+  </si>
+  <si>
+    <t>27/01/2012</t>
+  </si>
+  <si>
+    <t>25/10/2011</t>
+  </si>
+  <si>
+    <t>13/02/2012</t>
+  </si>
+  <si>
+    <t>19/06/2011</t>
+  </si>
+  <si>
+    <t>25/01/2012</t>
+  </si>
+  <si>
+    <t>19/10/2011</t>
+  </si>
+  <si>
+    <t>04/07/2011</t>
+  </si>
+  <si>
+    <t>17/05/2011</t>
+  </si>
+  <si>
+    <t>07/03/2012</t>
+  </si>
+  <si>
+    <t>27/11/2009</t>
+  </si>
+  <si>
+    <t>20/07/2009</t>
+  </si>
+  <si>
+    <t>09/03/2010</t>
+  </si>
+  <si>
+    <t>15/12/2009</t>
+  </si>
+  <si>
+    <t>21/07/2009</t>
+  </si>
+  <si>
+    <t>24/08/2009</t>
+  </si>
+  <si>
+    <t>03/02/2010</t>
+  </si>
+  <si>
+    <t>22/10/2009</t>
+  </si>
+  <si>
+    <t>17/12/2009</t>
+  </si>
+  <si>
+    <t>12/02/2010</t>
+  </si>
+  <si>
+    <t>26/11/2009</t>
+  </si>
+  <si>
+    <t>06/12/2009</t>
+  </si>
+  <si>
+    <t>18/01/2010</t>
+  </si>
+  <si>
+    <t>02/10/2009</t>
+  </si>
+  <si>
+    <t>06/02/2010</t>
+  </si>
+  <si>
+    <t>26/02/2010</t>
+  </si>
+  <si>
+    <t>07/04/2009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,7 +721,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -101,16 +729,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{E7A0781C-4784-4FC8-B9EC-DB7B746DD606}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -388,60 +1079,1250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="K32" s="6"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="K33" s="6"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="K34" s="6"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="K35" s="6"/>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="K36" s="6"/>
+      <c r="L36" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
